--- a/trunk/docs/AssemblyInstructions.xlsx
+++ b/trunk/docs/AssemblyInstructions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdmil_000\gbhdl_repo\GBHDL\trunk\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="12435" windowHeight="12345"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="12440" windowHeight="12350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Instruction</t>
   </si>
@@ -24,61 +29,30 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Notation</t>
-  </si>
-  <si>
     <t>Opcode</t>
   </si>
   <si>
-    <t>Options</t>
-  </si>
-  <si>
     <t>Hardware Completion</t>
   </si>
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>8-bit Transfer</t>
-  </si>
-  <si>
-    <t>LD r, r'</t>
-  </si>
-  <si>
-    <t>01 xxx yyy</t>
-  </si>
-  <si>
     <t>LD r, n</t>
   </si>
   <si>
-    <t>Cycles</t>
-  </si>
-  <si>
     <t>Flags Set</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>xxx - Destination Register</t>
-  </si>
-  <si>
-    <t>xxx - Destination Register
-yyy - Source Register</t>
-  </si>
-  <si>
     <t>Loads content of one register into another.</t>
   </si>
   <si>
-    <t>Loads an immediate value into a register.</t>
-  </si>
-  <si>
     <t>LD r, (HL)</t>
   </si>
   <si>
-    <t>01 xxx 110</t>
-  </si>
-  <si>
     <t>Load Register From Memory</t>
   </si>
   <si>
@@ -100,30 +74,9 @@
     <t>LD (HL), n</t>
   </si>
   <si>
-    <t>00 xxx 110
-nnnnnnnn</t>
-  </si>
-  <si>
-    <t>xxx - Destination Register
-nnnnnnnn - Imm. Value</t>
-  </si>
-  <si>
     <t>LD (HL), r</t>
   </si>
   <si>
-    <t>01 110 xxx</t>
-  </si>
-  <si>
-    <t>xxx - Source Register</t>
-  </si>
-  <si>
-    <t>00 110 110
-nnnnnnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnn - Imm. Value</t>
-  </si>
-  <si>
     <t>Stores immediate value into memory specified by HL register pair.</t>
   </si>
   <si>
@@ -136,9 +89,6 @@
     <t>Loads contents of memory specified by BC register pair into register A.</t>
   </si>
   <si>
-    <t>00 001 010</t>
-  </si>
-  <si>
     <t>Load Accumulator From Memory (BC)</t>
   </si>
   <si>
@@ -151,22 +101,307 @@
     <t>LD A, (DE)</t>
   </si>
   <si>
-    <t>00 011 010</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD A, (C ) </t>
   </si>
   <si>
-    <t>11 110 010</t>
-  </si>
-  <si>
-    <t>Loads contents of memory specified by (FF00) + (C ) into register A.</t>
+    <t>LD r, s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Loads a byte immediate value into a register.</t>
+  </si>
+  <si>
+    <t>No. of T States</t>
+  </si>
+  <si>
+    <t>No. of M Cycles</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>00
+nn</t>
+  </si>
+  <si>
+    <t>r
+nnn</t>
+  </si>
+  <si>
+    <t>110
+nnn</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Symbolic Operation</t>
+  </si>
+  <si>
+    <t>r &lt;- s</t>
+  </si>
+  <si>
+    <t>r &lt;- (HL)</t>
+  </si>
+  <si>
+    <t>r &lt;- n</t>
+  </si>
+  <si>
+    <t>A &lt;- (BC)</t>
+  </si>
+  <si>
+    <t>A &lt;- (DE)</t>
+  </si>
+  <si>
+    <t>(HL) &lt;- r</t>
+  </si>
+  <si>
+    <t>(HL) &lt;- n</t>
+  </si>
+  <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>8-bit Load Group</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Load Accumulator From Memory Offset (C)</t>
+  </si>
+  <si>
+    <t>A &lt;- (FF00 + C )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD (C ), A </t>
+  </si>
+  <si>
+    <t>(FF00 + C ) &lt;- A</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8(?)</t>
+  </si>
+  <si>
+    <t>000
+nnn</t>
+  </si>
+  <si>
+    <t>11
+nn</t>
+  </si>
+  <si>
+    <t>12(?)</t>
+  </si>
+  <si>
+    <t>Load Memory Offset (C) From Accumulator</t>
+  </si>
+  <si>
+    <t>100
+nnn</t>
+  </si>
+  <si>
+    <t>LD (n), A</t>
+  </si>
+  <si>
+    <t>LD A, (n)</t>
+  </si>
+  <si>
+    <t>Load Accumulator From Memory Offset (n)</t>
+  </si>
+  <si>
+    <t>A &lt;- (n)</t>
+  </si>
+  <si>
+    <t>n &lt;- (A)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>LD (nn), A</t>
+  </si>
+  <si>
+    <t>(nn) &lt;- A</t>
+  </si>
+  <si>
+    <t>11
+nn
+nn</t>
+  </si>
+  <si>
+    <t>101
+nnn
+nnn</t>
+  </si>
+  <si>
+    <t>010
+nnn
+nnn</t>
+  </si>
+  <si>
+    <t>Load Accumulator From Memory Offset (nn)</t>
+  </si>
+  <si>
+    <t>LD A, (nn)</t>
+  </si>
+  <si>
+    <t>A &lt;- (nn)</t>
+  </si>
+  <si>
+    <t>111
+nnn
+nnn</t>
+  </si>
+  <si>
+    <t>Load Memory Offset (nn) From Accumulator</t>
+  </si>
+  <si>
+    <t>Load Memory Offset (n) From Accumulator</t>
+  </si>
+  <si>
+    <t>Load Accumulator From Memory (HL) and Increment</t>
+  </si>
+  <si>
+    <t>LD A, (HLI)</t>
+  </si>
+  <si>
+    <t>A &lt;- (HL)
+HL &lt;- HL+1</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Load Accumulator From Memory (HL) and Decrement</t>
+  </si>
+  <si>
+    <t>Loads contents of memory specified by HL register pair into register A and decrements the contents of  HL.</t>
+  </si>
+  <si>
+    <t>LD A, (HLD)</t>
+  </si>
+  <si>
+    <t>A &lt;- (HL)
+HL &lt;- HL-1</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Load Memory (BC) From Accumulator</t>
+  </si>
+  <si>
+    <t>Loads the contents of register A into memory specified by register pair BC.</t>
+  </si>
+  <si>
+    <t>Loads contents of memory specified by nn into register A.</t>
+  </si>
+  <si>
+    <t>Loads contents of register A into memory secified by nn.</t>
+  </si>
+  <si>
+    <t>Loads contents of memory specified by HL register pair into register A and increments the contents of HL.</t>
+  </si>
+  <si>
+    <t>Loads contents of memory specified by FF00 + n into register A.</t>
+  </si>
+  <si>
+    <t>Loads contents of A into memory specified by FF00 + C.</t>
+  </si>
+  <si>
+    <t>Loads contents of memory specified by FF00 + C into register A.</t>
+  </si>
+  <si>
+    <t>Loads contents of register A into memory secified by FF00 + n.</t>
+  </si>
+  <si>
+    <t>LD (BC), A</t>
+  </si>
+  <si>
+    <t>(BC) &lt;- A</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>Load Memory (DE) From Accumulator</t>
+  </si>
+  <si>
+    <t>Loads the contents of register A into memory specified by register pair DE.</t>
+  </si>
+  <si>
+    <t>LD (DE), A</t>
+  </si>
+  <si>
+    <t>(DE) &lt;- A</t>
+  </si>
+  <si>
+    <t>Load Memory (HL) From Accumulator and Increment</t>
+  </si>
+  <si>
+    <t>Loads the contents of register A into memory specified by register pair HL and increments the contents of HL.</t>
+  </si>
+  <si>
+    <t>LD (HLI), A</t>
+  </si>
+  <si>
+    <t>(HL) &lt;- A
+HL &lt;- HL + 1</t>
+  </si>
+  <si>
+    <t>Load Memory (HL) From Accumulator and Decrement</t>
+  </si>
+  <si>
+    <t>Loads the contents of register A into memory specified by register pair HL and decrements the contents of HL.</t>
+  </si>
+  <si>
+    <t>LD (HLD), A</t>
+  </si>
+  <si>
+    <t>(HL) &lt;- A
+HL &lt;- HL - 1</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,24 +442,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,6 +494,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +578,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,314 +823,769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M91"/>
+  <dimension ref="B3:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="1.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.26953125" style="4" customWidth="1"/>
+    <col min="10" max="12" width="18.26953125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.26953125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2" style="4" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <v>76</v>
+      </c>
+      <c r="M4" s="1">
+        <v>543</v>
+      </c>
+      <c r="N4" s="1">
+        <v>210</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>110</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="45.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -846,7 +1597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -858,7 +1609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
